--- a/2-Tests/Lexerow.Core.Tests/10-Files/Run/datLinesThenACellBlankOk.xlsx
+++ b/2-Tests/Lexerow.Core.Tests/10-Files/Run/datLinesThenACellBlankOk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylawr\OneDrive\ProjetsDev\10-Pierlam\Lexerow\Dev\Lexerow\2-Tests\Lexerow.Core.Tests\10-Files\Run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8443A-C41A-41FE-A35F-1EBBDD440ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32905D3-A878-4379-B529-9A7F8A67D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="2160" windowWidth="18720" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>age</t>
   </si>
@@ -52,12 +52,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +81,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,7 +367,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +389,7 @@
       <c r="A2">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
@@ -398,10 +404,15 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
